--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t xml:space="preserve">Projet : TD ecommerce</t>
   </si>
@@ -181,6 +181,12 @@
     <t xml:space="preserve">Page accueil : Affichage des trajets</t>
   </si>
   <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">char</t>
+  </si>
+  <si>
     <t xml:space="preserve">Base de donnees</t>
   </si>
   <si>
@@ -196,12 +202,6 @@
     <t xml:space="preserve">idChauffeur</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">char</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design</t>
   </si>
   <si>
@@ -211,16 +211,58 @@
     <t xml:space="preserve">GetParcours → liste des parcours</t>
   </si>
   <si>
+    <t xml:space="preserve">AddParcours (à prévoir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditParcours (à prévoir)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intégration PHP</t>
   </si>
   <si>
     <t xml:space="preserve">4.</t>
   </si>
   <si>
-    <t xml:space="preserve">not started</t>
-  </si>
-  <si>
     <t xml:space="preserve">Page trajets : Affichage des voyages par trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(PK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table chauffeurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table vehicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immatriculat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_versmnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table voyages</t>
   </si>
 </sst>
 </file>
@@ -545,10 +587,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A15" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I63" activeCellId="0" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -556,11 +598,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.01"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="5.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="6.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="6.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -581,7 +622,7 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -595,20 +636,20 @@
       <c r="F3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L4" s="1"/>
-      <c r="M4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -622,15 +663,15 @@
       <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -644,16 +685,17 @@
       <c r="C6" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="O6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
@@ -662,13 +704,13 @@
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
@@ -677,23 +719,23 @@
       <c r="D8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1" t="s">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -707,159 +749,174 @@
       <c r="C10" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="O10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1" t="s">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1" t="s">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
+      <c r="M14" s="1"/>
+      <c r="N14" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0"/>
       <c r="E15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0"/>
       <c r="E16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D17" s="0"/>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D18" s="0"/>
       <c r="E18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D19" s="0"/>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D20" s="0" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="0"/>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -867,15 +924,15 @@
       <c r="D22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1" t="s">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1" t="s">
         <v>45</v>
       </c>
     </row>
@@ -883,26 +940,26 @@
       <c r="E23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1" t="s">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -912,400 +969,377 @@
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-    </row>
-    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0"/>
+      <c r="N25" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
       <c r="D26" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="L26" s="1" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I27" s="0"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
-      <c r="D28" s="0"/>
       <c r="F28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I28" s="0"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1" t="s">
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0"/>
-      <c r="B29" s="0"/>
-      <c r="C29" s="0"/>
-      <c r="D29" s="0"/>
       <c r="F29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="0"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
       <c r="F30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I30" s="0"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0"/>
-      <c r="B31" s="0"/>
-      <c r="C31" s="0"/>
-      <c r="D31" s="0"/>
       <c r="F31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I31" s="0"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="D42" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0"/>
-      <c r="B32" s="0"/>
-      <c r="C32" s="0"/>
-      <c r="D32" s="0"/>
-      <c r="E32" s="0"/>
-      <c r="F32" s="0"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="0"/>
-      <c r="I32" s="0"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0"/>
-      <c r="B33" s="0"/>
-      <c r="C33" s="0"/>
-      <c r="D33" s="0" t="s">
+      <c r="G67" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D69" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E33" s="0"/>
-      <c r="F33" s="0"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="0"/>
-      <c r="I33" s="0"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
-      <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
-      <c r="E34" s="0"/>
-      <c r="F34" s="0"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
-      <c r="I34" s="0"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0"/>
-      <c r="B35" s="0"/>
-      <c r="C35" s="0"/>
-      <c r="D35" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D71" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="0"/>
-      <c r="F35" s="0"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
-      <c r="I35" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0"/>
-      <c r="B36" s="0"/>
-      <c r="C36" s="0"/>
-      <c r="D36" s="0"/>
-      <c r="E36" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" s="0"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
-      <c r="I36" s="0"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0"/>
-      <c r="B37" s="0"/>
-      <c r="C37" s="0"/>
-      <c r="D37" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E37" s="0"/>
-      <c r="F37" s="0"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
-      <c r="I37" s="0" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0"/>
-      <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="D38" s="0"/>
-      <c r="E38" s="0"/>
-      <c r="F38" s="0"/>
-      <c r="G38" s="0"/>
-      <c r="H38" s="0"/>
-      <c r="I38" s="0"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D73" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="0"/>
-      <c r="D40" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0"/>
-      <c r="B41" s="0"/>
-      <c r="C41" s="0"/>
-      <c r="D41" s="0"/>
-      <c r="I41" s="0"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0"/>
-      <c r="B42" s="0"/>
-      <c r="C42" s="0"/>
-      <c r="D42" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E42" s="0"/>
-      <c r="F42" s="0"/>
-      <c r="G42" s="0"/>
-      <c r="H42" s="0"/>
-      <c r="I42" s="0"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0"/>
-      <c r="B43" s="0"/>
-      <c r="C43" s="0"/>
-      <c r="D43" s="0"/>
-      <c r="E43" s="0"/>
-      <c r="F43" s="0"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="0"/>
-      <c r="I43" s="0"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
-      <c r="I44" s="0"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0"/>
-      <c r="B45" s="0"/>
-      <c r="C45" s="0"/>
-      <c r="D45" s="0"/>
-      <c r="E45" s="0"/>
-      <c r="F45" s="0"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
-      <c r="I45" s="0"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0"/>
-      <c r="B46" s="0"/>
-      <c r="C46" s="0"/>
-      <c r="D46" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="0"/>
-      <c r="F46" s="0"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
-      <c r="I46" s="0"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="0"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0"/>
-      <c r="D62" s="0"/>
-      <c r="E62" s="0"/>
-      <c r="F62" s="0"/>
-      <c r="G62" s="0"/>
-      <c r="H62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0"/>
-      <c r="D63" s="0"/>
-      <c r="E63" s="0"/>
-      <c r="F63" s="0"/>
-      <c r="G63" s="0"/>
-      <c r="H63" s="0"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0"/>
-      <c r="D64" s="0"/>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-      <c r="G64" s="0"/>
-      <c r="H64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0"/>
-      <c r="D65" s="0"/>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-      <c r="G65" s="0"/>
-      <c r="H65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0"/>
-      <c r="D66" s="0"/>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-      <c r="G66" s="0"/>
-      <c r="H66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B9 B11:B26 B40:B1048576">
+  <conditionalFormatting sqref="B1:B9 B11:B26 B42:B1048576">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -1327,25 +1361,23 @@
       <formula>NOT(ISERROR(SEARCH("wip",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B26 B40:B1048576">
+  <conditionalFormatting sqref="B1:B26 B42:B1048576">
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B46">
+  <conditionalFormatting sqref="B41:B73">
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
-      <formula>NOT(ISERROR(SEARCH("ok",B39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("ok",B41)))</formula>
     </cfRule>
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>0</formula>
     </cfRule>
     <cfRule type="containsText" priority="11" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="wip" dxfId="2">
-      <formula>NOT(ISERROR(SEARCH("wip",B39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("wip",B41)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:B46">
     <cfRule type="containsText" priority="12" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
-      <formula>NOT(ISERROR(SEARCH("not started",B39)))</formula>
+      <formula>NOT(ISERROR(SEARCH("not started",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
   <si>
     <t xml:space="preserve">Projet : TD ecommerce</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t xml:space="preserve">(FK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type_voyage</t>
   </si>
   <si>
     <t xml:space="preserve">Table chauffeurs</t>
@@ -587,10 +590,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I63" activeCellId="0" sqref="I63"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -695,7 +698,7 @@
       <c r="N6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O6" s="0"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
@@ -759,7 +762,7 @@
       <c r="N10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="0"/>
+      <c r="O10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
@@ -870,8 +873,8 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1" t="s">
         <v>10</v>
@@ -880,7 +883,7 @@
       <c r="N19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="0"/>
+      <c r="O19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
@@ -895,8 +898,8 @@
       <c r="H20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="0"/>
-      <c r="J20" s="0"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1" t="s">
         <v>42</v>
@@ -905,7 +908,7 @@
       <c r="N20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="0"/>
+      <c r="O20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="1" t="s">
@@ -1194,60 +1197,60 @@
         <v>21</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E51" s="1" t="s">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E52" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="1" t="s">
+      <c r="F53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F53" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F54" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="G54" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E56" s="1" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="1" t="s">
         <v>75</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E57" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="1" t="s">
+      <c r="F58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F58" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1255,7 +1258,7 @@
         <v>77</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,7 +1266,7 @@
         <v>78</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1271,31 +1274,28 @@
         <v>79</v>
       </c>
       <c r="G61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E63" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>11</v>
@@ -1306,7 +1306,7 @@
         <v>70</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>11</v>
@@ -1317,24 +1317,35 @@
         <v>70</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D69" s="1" t="s">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D70" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D71" s="1" t="s">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D72" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D73" s="1" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D74" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1366,7 +1377,7 @@
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B73">
+  <conditionalFormatting sqref="B41:B74">
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B41)))</formula>
     </cfRule>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
   <si>
     <t xml:space="preserve">Projet : TD ecommerce</t>
   </si>
@@ -37,9 +37,6 @@
     <t xml:space="preserve">N</t>
   </si>
   <si>
-    <t xml:space="preserve">Notes to self (a supprimer plus tard)</t>
-  </si>
-  <si>
     <t xml:space="preserve">ETU4346</t>
   </si>
   <si>
@@ -49,7 +46,91 @@
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">Vehicule</t>
+    <t xml:space="preserve">#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To do list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qui ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ok</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparer le TD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lire le sujet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Both</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Préparation de la todolist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réflexion BDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Techno : mySQL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Réflexion sur les tables à créer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Véhicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chauffeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trajet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voyage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie panne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie rémunération</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Config_Remuneration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page accueil : Affichage des trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de donnees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table parcours</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -58,214 +139,172 @@
     <t xml:space="preserve">int</t>
   </si>
   <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To do list</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qui ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ok</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préparer le TD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minVersement</t>
+    <t xml:space="preserve">lieu_depart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lieu_arrivee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distance</t>
   </si>
   <si>
     <t xml:space="preserve">decimal</t>
   </si>
   <si>
-    <t xml:space="preserve">Lire le sujet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Both</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Préparation de la todolist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chauffeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réflexion BDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Techno : mySQL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réflexion sur les tables à créer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partie trajet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lieu_depart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Véhicule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lieu_arrivee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">distance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trajet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voyage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Partie panne</t>
+    <t xml:space="preserve">Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonctions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetParcours → liste des parcours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddParcours (à prévoir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditParcours (à prévoir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intégration PHP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page trajets : Affichage des voyages par trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(PK)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(FK)</t>
   </si>
   <si>
     <t xml:space="preserve">idParcours</t>
   </si>
   <si>
-    <t xml:space="preserve">Panne</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_debut</t>
   </si>
   <si>
     <t xml:space="preserve">datetime</t>
   </si>
   <si>
-    <t xml:space="preserve">Partie rémunération</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_fin</t>
   </si>
   <si>
-    <t xml:space="preserve">Config_Remuneration</t>
-  </si>
-  <si>
     <t xml:space="preserve">recette</t>
   </si>
   <si>
     <t xml:space="preserve">carburant</t>
   </si>
   <si>
-    <t xml:space="preserve">3.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page accueil : Affichage des trajets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
+    <t xml:space="preserve">type_voyage</t>
   </si>
   <si>
     <t xml:space="preserve">char</t>
   </si>
   <si>
-    <t xml:space="preserve">Base de donnees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table parcours</t>
+    <t xml:space="preserve">Table chauffeurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">varchar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table vehicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modele</t>
+  </si>
+  <si>
+    <t xml:space="preserve">immatriculat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">capacite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_versmnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table voyages</t>
   </si>
   <si>
     <t xml:space="preserve">idTrajet</t>
   </si>
   <si>
+    <t xml:space="preserve">idChauffeur</t>
+  </si>
+  <si>
     <t xml:space="preserve">idVehicule</t>
   </si>
   <si>
-    <t xml:space="preserve">idChauffeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fonctions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GetParcours → liste des parcours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AddParcours (à prévoir)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EditParcours (à prévoir)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intégration PHP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page trajets : Affichage des voyages par trajets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table trajets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(PK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(FK)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type_voyage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table chauffeurs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">varchar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">contact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table vehicules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modele</t>
-  </si>
-  <si>
-    <t xml:space="preserve">immatriculat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">capacite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">min_versmnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table voyages</t>
+    <t xml:space="preserve">Tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getTrajetByParcours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getStatParcours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page véhicule : liste des véhicules de la coopérative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table vehicule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GetVehicules → liste des vehicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AddVehicule (à prévoir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EditVehicule (à prévoir)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page details vehicules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vue v_kptv_vehicule_par_jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stats km effectues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stats recettes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stats carburant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stats benefices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stats nb trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">getStatsVehicules</t>
   </si>
 </sst>
 </file>
@@ -347,7 +386,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +400,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -590,10 +633,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I53" activeCellId="0" sqref="I53"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J84" activeCellId="0" sqref="J84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -603,7 +646,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="5.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="6.6"/>
   </cols>
   <sheetData>
@@ -625,90 +668,74 @@
       <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K4" s="1"/>
-      <c r="L4" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K5" s="1"/>
-      <c r="L5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -717,59 +744,49 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K9" s="1"/>
-      <c r="L9" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -777,74 +794,62 @@
       <c r="N11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="K12" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K14" s="1"/>
-      <c r="L14" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="K15" s="1"/>
-      <c r="L15" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="1"/>
-      <c r="L16" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -853,11 +858,9 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -868,7 +871,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -876,101 +879,82 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1"/>
     </row>
     <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1" t="s">
-        <v>42</v>
-      </c>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="K21" s="1"/>
-      <c r="L21" s="1" t="s">
-        <v>44</v>
-      </c>
+      <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D22" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K22" s="1"/>
-      <c r="L22" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="K23" s="1"/>
-      <c r="L23" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K24" s="1"/>
-      <c r="L24" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -979,149 +963,155 @@
       <c r="I25" s="1"/>
       <c r="J25" s="2"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1" t="s">
-        <v>53</v>
-      </c>
+      <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="H26" s="0"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>40</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="3"/>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K28" s="1"/>
-      <c r="L28" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="3"/>
       <c r="F29" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="L29" s="1" t="s">
-        <v>57</v>
-      </c>
+      <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="3"/>
       <c r="F30" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K30" s="1"/>
-      <c r="L30" s="1" t="s">
-        <v>58</v>
-      </c>
+      <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3"/>
       <c r="F31" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="K31" s="1"/>
-      <c r="L31" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="3"/>
       <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="3"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="3"/>
       <c r="D35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E36" s="1" t="s">
-        <v>62</v>
+        <v>46</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E37" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="E38" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="D39" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1130,227 +1120,472 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="D42" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="E43" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="3"/>
+      <c r="E45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="3"/>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="3"/>
+      <c r="F47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="3"/>
+      <c r="F48" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="3"/>
+      <c r="F49" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="3"/>
+      <c r="F50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="3"/>
+      <c r="E53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="3"/>
+      <c r="F54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="3"/>
+      <c r="F55" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E44" s="3" t="s">
+      <c r="H57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="3"/>
+      <c r="E58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="3"/>
+      <c r="F59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E45" s="3" t="s">
+      <c r="G59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="3"/>
+      <c r="F60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F46" s="1" t="s">
+      <c r="G60" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="3"/>
+      <c r="F61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="3"/>
+      <c r="F62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="3"/>
+      <c r="E65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="3"/>
+      <c r="E66" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="3"/>
+      <c r="E67" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="3"/>
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="3"/>
+      <c r="D70" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G46" s="1" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="3"/>
+      <c r="D72" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" s="1" t="s">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3"/>
+      <c r="D76" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E80" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D82" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D84" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F48" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F49" s="1" t="s">
+      <c r="H84" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D88" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E52" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F54" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F55" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E57" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F58" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F59" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F60" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F61" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F62" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E64" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E65" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E66" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E67" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E68" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D70" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D72" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D74" s="1" t="s">
-        <v>65</v>
+      <c r="H88" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E92" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D99" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D101" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E102" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D104" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B9 B11:B26 B42:B1048576">
+  <conditionalFormatting sqref="B1:B9 B11:B39 B42:B1048576">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B1)))</formula>
     </cfRule>
@@ -1372,12 +1607,12 @@
       <formula>NOT(ISERROR(SEARCH("wip",B10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B26 B42:B1048576">
+  <conditionalFormatting sqref="B1:B39 B42:B1048576">
     <cfRule type="containsText" priority="8" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="not started" dxfId="3">
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B74">
+  <conditionalFormatting sqref="B41:B76">
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B41)))</formula>
     </cfRule>

--- a/to-do-list.xlsx
+++ b/to-do-list.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="99">
   <si>
     <t xml:space="preserve">Projet : TD ecommerce</t>
   </si>
@@ -256,6 +256,9 @@
     <t xml:space="preserve">Tableau</t>
   </si>
   <si>
+    <t xml:space="preserve">CSS</t>
+  </si>
+  <si>
     <t xml:space="preserve">getTrajetByParcours</t>
   </si>
   <si>
@@ -302,6 +305,15 @@
   </si>
   <si>
     <t xml:space="preserve">stats nb trajets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table panne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
   </si>
   <si>
     <t xml:space="preserve">getStatsVehicules</t>
@@ -386,7 +398,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -400,10 +412,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -633,10 +641,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J84" activeCellId="0" sqref="J84"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N96" activeCellId="0" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,7 +895,7 @@
     <row r="20" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
@@ -976,7 +984,6 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-      <c r="H26" s="0"/>
       <c r="I26" s="1"/>
       <c r="J26" s="2"/>
     </row>
@@ -1051,7 +1058,9 @@
       <c r="B32" s="3"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="D33" s="1" t="s">
         <v>44</v>
       </c>
@@ -1399,188 +1408,257 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="3"/>
-      <c r="D72" s="1" t="s">
+      <c r="B72" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="3"/>
+      <c r="D73" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H73" s="1" t="s">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H75" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H74" s="1" t="s">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="3"/>
-    </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="3"/>
-      <c r="D76" s="1" t="s">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="3"/>
+      <c r="D78" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="1" t="s">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="1" t="s">
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E80" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D82" s="1" t="s">
+      <c r="E82" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D84" s="1" t="s">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D86" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E86" s="1" t="s">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E87" s="1" t="s">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E88" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D88" s="1" t="s">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E89" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D90" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="H90" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="90" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B90" s="2" t="s">
+    <row r="92" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C92" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E92" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H92" s="1" t="s">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E94" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H94" s="1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F93" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F94" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F95" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F97" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D99" s="1" t="s">
-        <v>44</v>
+      <c r="F99" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D101" s="1" t="s">
-        <v>45</v>
+      <c r="B101" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E102" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H102" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E103" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D108" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D110" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H111" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D104" s="1" t="s">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D113" s="1" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1612,7 +1690,7 @@
       <formula>NOT(ISERROR(SEARCH("not started",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B41:B76">
+  <conditionalFormatting sqref="B41:B78">
     <cfRule type="containsText" priority="9" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="ok" dxfId="0">
       <formula>NOT(ISERROR(SEARCH("ok",B41)))</formula>
     </cfRule>
